--- a/Dataset/ecommerce_sales.csv.xlsx
+++ b/Dataset/ecommerce_sales.csv.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dhanu\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ED9FB173-6694-4524-A4A0-8B537C34C04C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7DECA98-DDC6-4B4E-9A99-1783E0C73085}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F437B096-D840-4710-B892-E8E5092E4C6A}"/>
+    <workbookView xWindow="3624" yWindow="3360" windowWidth="17280" windowHeight="8880" xr2:uid="{F437B096-D840-4710-B892-E8E5092E4C6A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -74,10 +74,10 @@
     <t>1*20000=20000</t>
   </si>
   <si>
-    <t>2*500=1000</t>
-  </si>
-  <si>
     <t>2*1000=2000</t>
+  </si>
+  <si>
+    <t>2*2000=4000</t>
   </si>
 </sst>
 </file>
@@ -465,7 +465,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
